--- a/InventoryList.xlsx
+++ b/InventoryList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/176d18d4b6427b3f/Documents/GitHub/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC104857715C652C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF39A1B-A8EA-49A9-957E-37C01BF85C08}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC104857715C652C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C59D24-56A5-4728-972C-BB6FAF07C631}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Brand</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>pieces</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Whats</t>
   </si>
 </sst>
 </file>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +409,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
